--- a/文档/苹果机型资料.xlsx
+++ b/文档/苹果机型资料.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyfeng/SourceTree/MyDevelopment/文档/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +273,54 @@
   </si>
   <si>
     <t>2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 6s Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad mini 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2732*2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1366*1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone SE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,8 +532,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="125">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -540,72 +603,76 @@
     <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -931,16 +998,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
@@ -952,7 +1019,7 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>39356</v>
       </c>
@@ -1013,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>39722</v>
       </c>
@@ -1042,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>40087</v>
       </c>
@@ -1071,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>40452</v>
       </c>
@@ -1100,7 +1167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>40817</v>
       </c>
@@ -1111,7 +1178,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1">
         <v>3.5</v>
@@ -1129,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>41183</v>
       </c>
@@ -1140,7 +1207,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -1155,7 +1222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>41548</v>
       </c>
@@ -1181,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>41548</v>
       </c>
@@ -1207,7 +1274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>41913</v>
       </c>
@@ -1233,7 +1300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>41913</v>
       </c>
@@ -1262,7 +1329,88 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>40179</v>
       </c>
@@ -1291,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>40603</v>
       </c>
@@ -1302,7 +1450,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1">
         <v>9.6999999999999993</v>
@@ -1320,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>40969</v>
       </c>
@@ -1346,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>41183</v>
       </c>
@@ -1372,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>41183</v>
       </c>
@@ -1398,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>41548</v>
       </c>
@@ -1424,7 +1572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>41548</v>
       </c>
@@ -1450,7 +1598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>41913</v>
       </c>
@@ -1476,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>41913</v>
       </c>
@@ -1502,14 +1650,89 @@
         <v>17</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>42278</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A25:A26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>